--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-654156.7416958801</v>
+        <v>-656081.3452627381</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3180051.965155035</v>
+        <v>3180051.965155037</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -665,64 +665,64 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F2" t="n">
-        <v>252.8988326552593</v>
+        <v>102.2133755837553</v>
       </c>
       <c r="G2" t="n">
-        <v>15.16194852731947</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>141.0252816852793</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>251.3343897888113</v>
-      </c>
-      <c r="V2" t="n">
-        <v>276.1565137023555</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>9.888629861318256</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,10 +750,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>78.30313722488336</v>
       </c>
       <c r="I3" t="n">
         <v>86.80307722268739</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>88.89425643449839</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>86.23693751337954</v>
+        <v>175.1311939478779</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>341.8733101690315</v>
       </c>
       <c r="G5" t="n">
-        <v>232.859035939495</v>
+        <v>341.8733101690315</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>196.2804842470833</v>
+        <v>64.31007113347681</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>126.7395639656316</v>
+        <v>126.7395639656321</v>
       </c>
       <c r="S5" t="n">
-        <v>200.6294905367618</v>
+        <v>200.629490536762</v>
       </c>
       <c r="T5" t="n">
-        <v>221.484011504269</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3161961300435</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>341.8733101690337</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>91.54900817467637</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.1465075933366</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>110.3327465485026</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>82.61362792373502</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>168.023804751134</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>72.27397155266675</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>3.080181780086029</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>244.1133419722401</v>
+        <v>247.1935237523237</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>161.5519252761216</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>325.2557485598865</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>129.6781866221428</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>179.7914200898992</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>101.5008511078725</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>66.1112974358837</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1658,7 +1658,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>132.5177247248037</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>105.9495739306891</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>24.6816495607095</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2056,19 +2056,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2239,16 +2239,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002174</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>76.93642084801044</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>45.27194911804647</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>127.0199624800789</v>
       </c>
       <c r="G25" t="n">
-        <v>148.0924829205252</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>24.1994286775995</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>203.1464755155369</v>
       </c>
       <c r="U25" t="n">
-        <v>267.836266855725</v>
+        <v>267.8362668557249</v>
       </c>
       <c r="V25" t="n">
-        <v>233.7365577809757</v>
+        <v>233.7365577809756</v>
       </c>
       <c r="W25" t="n">
-        <v>268.1219127937387</v>
+        <v>268.1219127937386</v>
       </c>
       <c r="X25" t="n">
         <v>207.3085698461848</v>
@@ -2606,7 +2606,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>161.430894639085</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>148.0924829205252</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>92.01815992141964</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>91.56326686094044</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>179.5197244407509</v>
       </c>
       <c r="T28" t="n">
-        <v>116.0701405526667</v>
+        <v>203.1464755155369</v>
       </c>
       <c r="U28" t="n">
-        <v>267.836266855725</v>
+        <v>267.8362668557249</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>233.7365577809756</v>
       </c>
       <c r="W28" t="n">
-        <v>268.1219127937387</v>
+        <v>268.1219127937386</v>
       </c>
       <c r="X28" t="n">
-        <v>207.3085698461848</v>
+        <v>179.4169136350677</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>200.1835678092424</v>
       </c>
     </row>
     <row r="29">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>161.430894639085</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>148.0924829205252</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>130.5127428246838</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>92.01815992141965</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,22 +3001,22 @@
         <v>179.5197244407509</v>
       </c>
       <c r="T31" t="n">
-        <v>50.69267665413302</v>
+        <v>175.25481930442</v>
       </c>
       <c r="U31" t="n">
-        <v>267.836266855725</v>
+        <v>267.8362668557249</v>
       </c>
       <c r="V31" t="n">
-        <v>233.7365577809757</v>
+        <v>233.7365577809756</v>
       </c>
       <c r="W31" t="n">
-        <v>268.1219127937387</v>
+        <v>268.1219127937386</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>207.3085698461848</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>200.1835678092424</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>237.1553589816771</v>
       </c>
       <c r="I35" t="n">
-        <v>13.64724492310012</v>
+        <v>13.64724492310009</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,10 +3320,10 @@
         <v>140.3508982088613</v>
       </c>
       <c r="U35" t="n">
-        <v>182.9467051201589</v>
+        <v>182.9467051201603</v>
       </c>
       <c r="V35" t="n">
-        <v>259.6203683404943</v>
+        <v>259.6203683404942</v>
       </c>
       <c r="W35" t="n">
         <v>281.1090785877724</v>
@@ -3332,7 +3332,7 @@
         <v>301.5992105488284</v>
       </c>
       <c r="Y35" t="n">
-        <v>318.106048526413</v>
+        <v>318.1060485264117</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>314.6019515338399</v>
+        <v>314.60195153384</v>
       </c>
       <c r="C38" t="n">
         <v>297.1410016413669</v>
@@ -3509,7 +3509,7 @@
         <v>286.5511514910423</v>
       </c>
       <c r="E38" t="n">
-        <v>313.7984799426211</v>
+        <v>313.7984799426212</v>
       </c>
       <c r="F38" t="n">
         <v>338.7441556120708</v>
@@ -3521,7 +3521,7 @@
         <v>237.155358981677</v>
       </c>
       <c r="I38" t="n">
-        <v>13.64724492310008</v>
+        <v>13.64724492310009</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>64.81847467555816</v>
+        <v>64.81847467555818</v>
       </c>
       <c r="T38" t="n">
-        <v>140.3508982088612</v>
+        <v>140.3508982088613</v>
       </c>
       <c r="U38" t="n">
         <v>182.9467051201603</v>
@@ -3563,7 +3563,7 @@
         <v>259.6203683404942</v>
       </c>
       <c r="W38" t="n">
-        <v>281.1090785877723</v>
+        <v>281.1090785877724</v>
       </c>
       <c r="X38" t="n">
         <v>301.5992105488284</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3749,16 +3749,16 @@
         <v>313.7984799426212</v>
       </c>
       <c r="F41" t="n">
-        <v>338.7441556120694</v>
+        <v>338.7441556120708</v>
       </c>
       <c r="G41" t="n">
-        <v>343.8326266600508</v>
+        <v>343.8326266600496</v>
       </c>
       <c r="H41" t="n">
         <v>237.1553589816771</v>
       </c>
       <c r="I41" t="n">
-        <v>13.64724492310012</v>
+        <v>13.64724492310009</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,10 +3794,10 @@
         <v>140.3508982088613</v>
       </c>
       <c r="U41" t="n">
-        <v>182.9467051201604</v>
+        <v>182.9467051201603</v>
       </c>
       <c r="V41" t="n">
-        <v>259.6203683404943</v>
+        <v>259.6203683404942</v>
       </c>
       <c r="W41" t="n">
         <v>281.1090785877724</v>
@@ -3806,7 +3806,7 @@
         <v>301.5992105488284</v>
       </c>
       <c r="Y41" t="n">
-        <v>318.106048526413</v>
+        <v>318.1060485264129</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>314.6019515338399</v>
+        <v>314.60195153384</v>
       </c>
       <c r="C44" t="n">
         <v>297.1410016413669</v>
@@ -3983,19 +3983,19 @@
         <v>286.5511514910423</v>
       </c>
       <c r="E44" t="n">
-        <v>313.7984799426211</v>
+        <v>313.7984799426212</v>
       </c>
       <c r="F44" t="n">
         <v>338.7441556120708</v>
       </c>
       <c r="G44" t="n">
-        <v>343.8326266600499</v>
+        <v>343.8326266600508</v>
       </c>
       <c r="H44" t="n">
-        <v>237.155358981677</v>
+        <v>237.1553589816758</v>
       </c>
       <c r="I44" t="n">
-        <v>13.64724492310006</v>
+        <v>13.64724492310009</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>64.81847467555816</v>
+        <v>64.81847467555819</v>
       </c>
       <c r="T44" t="n">
-        <v>140.3508982088612</v>
+        <v>140.3508982088613</v>
       </c>
       <c r="U44" t="n">
         <v>182.9467051201603</v>
@@ -4037,7 +4037,7 @@
         <v>259.6203683404942</v>
       </c>
       <c r="W44" t="n">
-        <v>281.1090785877723</v>
+        <v>281.1090785877724</v>
       </c>
       <c r="X44" t="n">
         <v>301.5992105488284</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>571.8069603738999</v>
+        <v>683.2303018926191</v>
       </c>
       <c r="C2" t="n">
-        <v>571.8069603738999</v>
+        <v>683.2303018926191</v>
       </c>
       <c r="D2" t="n">
-        <v>571.8069603738999</v>
+        <v>683.2303018926191</v>
       </c>
       <c r="E2" t="n">
-        <v>571.8069603738999</v>
+        <v>404.2843284558963</v>
       </c>
       <c r="F2" t="n">
-        <v>316.3535940554561</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="G2" t="n">
-        <v>301.0384945329112</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H2" t="n">
         <v>22.09252109618844</v>
@@ -4328,10 +4328,10 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618846</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
         <v>344.9085595412869</v>
@@ -4343,7 +4343,7 @@
         <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4352,28 +4352,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="T2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="U2" t="n">
-        <v>850.7529338106226</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="V2" t="n">
-        <v>571.8069603738999</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="W2" t="n">
-        <v>571.8069603738999</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="X2" t="n">
-        <v>571.8069603738999</v>
+        <v>683.2303018926191</v>
       </c>
       <c r="Y2" t="n">
-        <v>571.8069603738999</v>
+        <v>683.2303018926191</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>440.7484993443756</v>
+        <v>648.5087981093295</v>
       </c>
       <c r="C3" t="n">
-        <v>266.2954700632486</v>
+        <v>474.0557688282025</v>
       </c>
       <c r="D3" t="n">
-        <v>256.306955051816</v>
+        <v>474.0557688282025</v>
       </c>
       <c r="E3" t="n">
-        <v>256.306955051816</v>
+        <v>474.0557688282025</v>
       </c>
       <c r="F3" t="n">
-        <v>109.772397078701</v>
+        <v>327.5212108550875</v>
       </c>
       <c r="G3" t="n">
-        <v>109.772397078701</v>
+        <v>188.8664750836336</v>
       </c>
       <c r="H3" t="n">
         <v>109.772397078701</v>
@@ -4410,13 +4410,13 @@
         <v>28.39914141318535</v>
       </c>
       <c r="K3" t="n">
-        <v>165.799003153448</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="L3" t="n">
-        <v>411.954469746149</v>
+        <v>274.5546080058863</v>
       </c>
       <c r="M3" t="n">
-        <v>685.3494183114809</v>
+        <v>547.9495565712182</v>
       </c>
       <c r="N3" t="n">
         <v>759.2151904085662</v>
@@ -4452,7 +4452,7 @@
         <v>648.5087981093295</v>
       </c>
       <c r="Y3" t="n">
-        <v>440.7484993443756</v>
+        <v>648.5087981093295</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>111.8846993128535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C4" t="n">
-        <v>111.8846993128535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D4" t="n">
-        <v>111.8846993128535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E4" t="n">
-        <v>111.8846993128535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F4" t="n">
-        <v>111.8846993128535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G4" t="n">
-        <v>111.8846993128535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H4" t="n">
-        <v>111.8846993128535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>111.8846993128535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
         <v>22.09252109618844</v>
@@ -4531,7 +4531,7 @@
         <v>198.9927170031359</v>
       </c>
       <c r="Y4" t="n">
-        <v>111.8846993128535</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>467.7696283774517</v>
+        <v>782.9626844817445</v>
       </c>
       <c r="C5" t="n">
-        <v>467.7696283774517</v>
+        <v>782.9626844817445</v>
       </c>
       <c r="D5" t="n">
-        <v>467.7696283774517</v>
+        <v>782.9626844817445</v>
       </c>
       <c r="E5" t="n">
-        <v>467.7696283774517</v>
+        <v>782.9626844817445</v>
       </c>
       <c r="F5" t="n">
-        <v>460.8241276282483</v>
+        <v>437.6361085534299</v>
       </c>
       <c r="G5" t="n">
-        <v>225.612980214617</v>
+        <v>92.30953262511525</v>
       </c>
       <c r="H5" t="n">
-        <v>225.612980214617</v>
+        <v>92.30953262511525</v>
       </c>
       <c r="I5" t="n">
-        <v>27.3498648135227</v>
+        <v>27.34986481352252</v>
       </c>
       <c r="J5" t="n">
-        <v>46.45889488082014</v>
+        <v>46.45889488081926</v>
       </c>
       <c r="K5" t="n">
-        <v>195.8431816943461</v>
+        <v>195.8431816943443</v>
       </c>
       <c r="L5" t="n">
-        <v>433.4442264909786</v>
+        <v>433.4442264909756</v>
       </c>
       <c r="M5" t="n">
-        <v>714.4277151203071</v>
+        <v>714.4277151203027</v>
       </c>
       <c r="N5" t="n">
-        <v>985.3258128090383</v>
+        <v>985.3258128090326</v>
       </c>
       <c r="O5" t="n">
-        <v>1195.939566860208</v>
+        <v>1195.939566860201</v>
       </c>
       <c r="P5" t="n">
-        <v>1338.019150313933</v>
+        <v>1338.019150313924</v>
       </c>
       <c r="Q5" t="n">
-        <v>1367.493240676135</v>
+        <v>1367.493240676126</v>
       </c>
       <c r="R5" t="n">
-        <v>1239.473479094689</v>
+        <v>1239.473479094679</v>
       </c>
       <c r="S5" t="n">
-        <v>1036.817428047455</v>
+        <v>1036.817428047445</v>
       </c>
       <c r="T5" t="n">
-        <v>813.0962043057687</v>
+        <v>1036.817428047445</v>
       </c>
       <c r="U5" t="n">
-        <v>813.0962043057687</v>
+        <v>782.9626844817445</v>
       </c>
       <c r="V5" t="n">
-        <v>813.0962043057687</v>
+        <v>782.9626844817445</v>
       </c>
       <c r="W5" t="n">
-        <v>813.0962043057687</v>
+        <v>782.9626844817445</v>
       </c>
       <c r="X5" t="n">
-        <v>467.7696283774517</v>
+        <v>782.9626844817445</v>
       </c>
       <c r="Y5" t="n">
-        <v>467.7696283774517</v>
+        <v>782.9626844817445</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>294.276639725636</v>
+        <v>681.7646056693548</v>
       </c>
       <c r="C6" t="n">
-        <v>119.8236104445089</v>
+        <v>507.3115763882278</v>
       </c>
       <c r="D6" t="n">
-        <v>27.3498648135227</v>
+        <v>507.3115763882278</v>
       </c>
       <c r="E6" t="n">
-        <v>27.3498648135227</v>
+        <v>507.3115763882278</v>
       </c>
       <c r="F6" t="n">
-        <v>27.3498648135227</v>
+        <v>360.7770184151127</v>
       </c>
       <c r="G6" t="n">
-        <v>27.3498648135227</v>
+        <v>222.2451925632575</v>
       </c>
       <c r="H6" t="n">
-        <v>27.3498648135227</v>
+        <v>110.7979738273963</v>
       </c>
       <c r="I6" t="n">
-        <v>27.3498648135227</v>
+        <v>27.34986481352252</v>
       </c>
       <c r="J6" t="n">
-        <v>45.03769252864049</v>
+        <v>27.34986481352252</v>
       </c>
       <c r="K6" t="n">
-        <v>45.03769252864049</v>
+        <v>27.34986481352252</v>
       </c>
       <c r="L6" t="n">
-        <v>81.24718089822875</v>
+        <v>81.2471808982267</v>
       </c>
       <c r="M6" t="n">
-        <v>419.7017579655721</v>
+        <v>419.7017579655679</v>
       </c>
       <c r="N6" t="n">
-        <v>758.1563350329155</v>
+        <v>758.1563350329091</v>
       </c>
       <c r="O6" t="n">
-        <v>1053.314601553661</v>
+        <v>1053.314601553654</v>
       </c>
       <c r="P6" t="n">
-        <v>1273.202064371589</v>
+        <v>1273.20206437158</v>
       </c>
       <c r="Q6" t="n">
-        <v>1367.493240676135</v>
+        <v>1367.493240676126</v>
       </c>
       <c r="R6" t="n">
-        <v>1367.493240676135</v>
+        <v>1367.493240676126</v>
       </c>
       <c r="S6" t="n">
-        <v>1367.493240676135</v>
+        <v>1197.772225775991</v>
       </c>
       <c r="T6" t="n">
-        <v>1367.493240676135</v>
+        <v>1197.772225775991</v>
       </c>
       <c r="U6" t="n">
-        <v>1367.493240676135</v>
+        <v>1197.772225775991</v>
       </c>
       <c r="V6" t="n">
-        <v>1132.341132444392</v>
+        <v>962.6201175442479</v>
       </c>
       <c r="W6" t="n">
-        <v>878.1037757161907</v>
+        <v>889.6161058748876</v>
       </c>
       <c r="X6" t="n">
-        <v>670.2522755106579</v>
+        <v>681.7646056693548</v>
       </c>
       <c r="Y6" t="n">
-        <v>462.491976745704</v>
+        <v>681.7646056693548</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.46115954088232</v>
+        <v>27.34986481352252</v>
       </c>
       <c r="C7" t="n">
-        <v>30.46115954088232</v>
+        <v>27.34986481352252</v>
       </c>
       <c r="D7" t="n">
-        <v>30.46115954088232</v>
+        <v>27.34986481352252</v>
       </c>
       <c r="E7" t="n">
-        <v>30.46115954088232</v>
+        <v>27.34986481352252</v>
       </c>
       <c r="F7" t="n">
-        <v>30.46115954088232</v>
+        <v>27.34986481352252</v>
       </c>
       <c r="G7" t="n">
-        <v>30.46115954088232</v>
+        <v>27.34986481352252</v>
       </c>
       <c r="H7" t="n">
-        <v>30.46115954088232</v>
+        <v>27.34986481352252</v>
       </c>
       <c r="I7" t="n">
-        <v>30.46115954088232</v>
+        <v>27.34986481352252</v>
       </c>
       <c r="J7" t="n">
-        <v>30.46115954088232</v>
+        <v>27.34986481352252</v>
       </c>
       <c r="K7" t="n">
-        <v>27.3498648135227</v>
+        <v>27.34986481352252</v>
       </c>
       <c r="L7" t="n">
-        <v>78.9741429295355</v>
+        <v>78.97414292953479</v>
       </c>
       <c r="M7" t="n">
-        <v>143.793829039479</v>
+        <v>143.7938290394777</v>
       </c>
       <c r="N7" t="n">
-        <v>212.5068643147032</v>
+        <v>212.5068643147014</v>
       </c>
       <c r="O7" t="n">
-        <v>259.9581784039161</v>
+        <v>259.9581784039138</v>
       </c>
       <c r="P7" t="n">
-        <v>277.0402928461754</v>
+        <v>277.0402928461727</v>
       </c>
       <c r="Q7" t="n">
-        <v>277.0402928461754</v>
+        <v>277.0402928461727</v>
       </c>
       <c r="R7" t="n">
-        <v>277.0402928461754</v>
+        <v>277.0402928461727</v>
       </c>
       <c r="S7" t="n">
-        <v>277.0402928461754</v>
+        <v>277.0402928461727</v>
       </c>
       <c r="T7" t="n">
-        <v>277.0402928461754</v>
+        <v>277.0402928461727</v>
       </c>
       <c r="U7" t="n">
-        <v>277.0402928461754</v>
+        <v>277.0402928461727</v>
       </c>
       <c r="V7" t="n">
-        <v>30.46115954088232</v>
+        <v>27.34986481352252</v>
       </c>
       <c r="W7" t="n">
-        <v>30.46115954088232</v>
+        <v>27.34986481352252</v>
       </c>
       <c r="X7" t="n">
-        <v>30.46115954088232</v>
+        <v>27.34986481352252</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.46115954088232</v>
+        <v>27.34986481352252</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
         <v>1222.906241876376</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2533.965328113049</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2280.203542751141</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1949.14065540757</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1596.372000137456</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4905,7 +4905,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>257.3478788207</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="C10" t="n">
-        <v>257.3478788207</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="D10" t="n">
-        <v>257.3478788207</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="E10" t="n">
-        <v>257.3478788207</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788207</v>
+        <v>353.9308493771258</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>184.9310491154582</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>546.521489166132</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>546.521489166132</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U10" t="n">
-        <v>257.3478788207</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V10" t="n">
-        <v>257.3478788207</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W10" t="n">
-        <v>257.3478788207</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X10" t="n">
-        <v>257.3478788207</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y10" t="n">
-        <v>257.3478788207</v>
+        <v>500.8207968750362</v>
       </c>
     </row>
     <row r="11">
@@ -5024,13 +5024,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5039,25 +5039,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>841.8631140141288</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N12" t="n">
-        <v>1171.725741678162</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1841.189502980821</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>720.4504516500521</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C13" t="n">
-        <v>720.4504516500521</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D13" t="n">
-        <v>570.3338122377163</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>422.4207186553232</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>275.5307711574128</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>275.5307711574128</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5203,16 +5203,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1009.867621687013</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>720.4504516500521</v>
+        <v>665.6859735286131</v>
       </c>
       <c r="X13" t="n">
-        <v>720.4504516500521</v>
+        <v>665.6859735286131</v>
       </c>
       <c r="Y13" t="n">
-        <v>720.4504516500521</v>
+        <v>665.6859735286131</v>
       </c>
     </row>
     <row r="14">
@@ -5276,10 +5276,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5312,7 +5312,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>966.6932390011336</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N15" t="n">
-        <v>1296.555866665166</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2279.445761859783</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>613.8011874802279</v>
+        <v>865.4928396191511</v>
       </c>
       <c r="C16" t="n">
-        <v>613.8011874802279</v>
+        <v>696.5566566912443</v>
       </c>
       <c r="D16" t="n">
-        <v>463.6845480678921</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E16" t="n">
-        <v>315.771454485499</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F16" t="n">
-        <v>315.771454485499</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>315.771454485499</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688071</v>
@@ -5443,13 +5443,13 @@
         <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W16" t="n">
-        <v>1244.231782352015</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X16" t="n">
-        <v>1016.242231453998</v>
+        <v>1047.141304449391</v>
       </c>
       <c r="Y16" t="n">
-        <v>795.4496523104676</v>
+        <v>1047.141304449391</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,19 +5592,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211721</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M18" t="n">
-        <v>966.6932390011339</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1296.555866665167</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
         <v>1808.163466324677</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>272.5660590645743</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>272.5660590645743</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>272.5660590645743</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>272.5660590645743</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>272.5660590645743</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5671,16 +5671,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>675.0071030383442</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>675.0071030383442</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>675.0071030383442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>454.2145238948141</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5729,40 +5729,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5777,22 +5777,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5847,10 +5847,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5911,10 +5911,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5926,7 +5926,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>931.8655340243621</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="23">
@@ -5987,13 +5987,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6084,10 +6084,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>271.2493253977857</v>
+        <v>225.5200838644059</v>
       </c>
       <c r="C25" t="n">
-        <v>271.2493253977857</v>
+        <v>225.5200838644059</v>
       </c>
       <c r="D25" t="n">
-        <v>271.2493253977857</v>
+        <v>225.5200838644059</v>
       </c>
       <c r="E25" t="n">
-        <v>271.2493253977857</v>
+        <v>225.5200838644059</v>
       </c>
       <c r="F25" t="n">
-        <v>271.2493253977857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>121.6609588113965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>121.6609588113965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6151,10 +6151,10 @@
         <v>296.2193375436548</v>
       </c>
       <c r="L25" t="n">
-        <v>562.1484572422078</v>
+        <v>562.1484572422079</v>
       </c>
       <c r="M25" t="n">
-        <v>851.9322746968144</v>
+        <v>851.9322746968143</v>
       </c>
       <c r="N25" t="n">
         <v>1140.693458411786</v>
@@ -6172,25 +6172,25 @@
         <v>1644.652868057293</v>
       </c>
       <c r="S25" t="n">
-        <v>1463.319813066635</v>
+        <v>1463.319813066636</v>
       </c>
       <c r="T25" t="n">
-        <v>1258.121352949931</v>
+        <v>1258.121352949932</v>
       </c>
       <c r="U25" t="n">
-        <v>987.5796692572799</v>
+        <v>987.5796692572802</v>
       </c>
       <c r="V25" t="n">
-        <v>751.4821361451832</v>
+        <v>751.4821361451836</v>
       </c>
       <c r="W25" t="n">
-        <v>480.6519212020128</v>
+        <v>480.6519212020132</v>
       </c>
       <c r="X25" t="n">
-        <v>271.2493253977857</v>
+        <v>271.2493253977862</v>
       </c>
       <c r="Y25" t="n">
-        <v>271.2493253977857</v>
+        <v>271.2493253977862</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6227,16 +6227,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,19 +6257,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>339.7530943309373</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>339.7530943309373</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>339.7530943309373</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>339.7530943309373</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>339.7530943309373</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>190.1647277445481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>190.1647277445481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>127.8168586116195</v>
+        <v>127.8168586116196</v>
       </c>
       <c r="K28" t="n">
-        <v>296.2193375436548</v>
+        <v>296.2193375436549</v>
       </c>
       <c r="L28" t="n">
-        <v>562.1484572422078</v>
+        <v>562.1484572422079</v>
       </c>
       <c r="M28" t="n">
-        <v>851.9322746968144</v>
+        <v>851.9322746968146</v>
       </c>
       <c r="N28" t="n">
         <v>1140.693458411786</v>
       </c>
       <c r="O28" t="n">
-        <v>1392.785511104606</v>
+        <v>1392.785511104607</v>
       </c>
       <c r="P28" t="n">
         <v>1587.602350397713</v>
@@ -6406,28 +6406,28 @@
         <v>1644.652868057293</v>
       </c>
       <c r="R28" t="n">
-        <v>1552.164719712908</v>
+        <v>1644.652868057293</v>
       </c>
       <c r="S28" t="n">
-        <v>1370.831664722251</v>
+        <v>1463.319813066636</v>
       </c>
       <c r="T28" t="n">
-        <v>1253.589098507436</v>
+        <v>1258.121352949932</v>
       </c>
       <c r="U28" t="n">
-        <v>983.0474148147842</v>
+        <v>987.5796692572801</v>
       </c>
       <c r="V28" t="n">
-        <v>983.0474148147842</v>
+        <v>751.4821361451835</v>
       </c>
       <c r="W28" t="n">
-        <v>712.2171998716138</v>
+        <v>480.6519212020132</v>
       </c>
       <c r="X28" t="n">
-        <v>502.8146040673868</v>
+        <v>299.4227155100257</v>
       </c>
       <c r="Y28" t="n">
-        <v>502.8146040673868</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6440,40 +6440,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6488,22 +6488,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>223.1552313137088</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>634.0455001582214</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>880.8106280646855</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>471.5841476892037</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>471.5841476892037</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>471.5841476892037</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>471.5841476892037</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>471.5841476892037</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>321.9957811028146</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>190.1647277445481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>127.8168586116195</v>
+        <v>127.8168586116196</v>
       </c>
       <c r="K31" t="n">
-        <v>296.2193375436548</v>
+        <v>296.2193375436549</v>
       </c>
       <c r="L31" t="n">
-        <v>562.1484572422079</v>
+        <v>562.148457242208</v>
       </c>
       <c r="M31" t="n">
-        <v>851.9322746968144</v>
+        <v>851.9322746968147</v>
       </c>
       <c r="N31" t="n">
         <v>1140.693458411786</v>
       </c>
       <c r="O31" t="n">
-        <v>1392.785511104606</v>
+        <v>1392.785511104607</v>
       </c>
       <c r="P31" t="n">
-        <v>1587.602350397713</v>
+        <v>1587.602350397714</v>
       </c>
       <c r="Q31" t="n">
-        <v>1644.652868057293</v>
+        <v>1644.652868057294</v>
       </c>
       <c r="R31" t="n">
-        <v>1644.652868057293</v>
+        <v>1644.652868057294</v>
       </c>
       <c r="S31" t="n">
         <v>1463.319813066636</v>
       </c>
       <c r="T31" t="n">
-        <v>1412.115089173572</v>
+        <v>1286.294743062171</v>
       </c>
       <c r="U31" t="n">
-        <v>1141.57340548092</v>
+        <v>1015.75305936952</v>
       </c>
       <c r="V31" t="n">
-        <v>905.4758723688235</v>
+        <v>779.6555262574232</v>
       </c>
       <c r="W31" t="n">
-        <v>634.6456574256532</v>
+        <v>508.8253113142528</v>
       </c>
       <c r="X31" t="n">
-        <v>634.6456574256532</v>
+        <v>299.4227155100257</v>
       </c>
       <c r="Y31" t="n">
-        <v>634.6456574256532</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,28 +6689,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6719,31 +6719,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>223.1552313137088</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K33" t="n">
-        <v>634.0455001582214</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L33" t="n">
-        <v>880.8106280646855</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.130761344647</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1517.99338900868</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103123</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6929,34 +6929,34 @@
         <v>329.485680192289</v>
       </c>
       <c r="H35" t="n">
-        <v>89.93481253402933</v>
+        <v>89.93481253402931</v>
       </c>
       <c r="I35" t="n">
         <v>76.14971665211002</v>
       </c>
       <c r="J35" t="n">
-        <v>344.8139583742029</v>
+        <v>177.4083093538499</v>
       </c>
       <c r="K35" t="n">
-        <v>547.3128584977795</v>
+        <v>423.9151489921527</v>
       </c>
       <c r="L35" t="n">
-        <v>835.4324121366317</v>
+        <v>1125.519305035951</v>
       </c>
       <c r="M35" t="n">
-        <v>1632.708765856522</v>
+        <v>1922.795658755841</v>
       </c>
       <c r="N35" t="n">
-        <v>2130.341082210336</v>
+        <v>2718.340779859872</v>
       </c>
       <c r="O35" t="n">
-        <v>2836.364143234531</v>
+        <v>3424.363840884068</v>
       </c>
       <c r="P35" t="n">
-        <v>3401.264108490334</v>
+        <v>3670.683085050103</v>
       </c>
       <c r="Q35" t="n">
-        <v>3748.258696799037</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="R35" t="n">
         <v>3807.4858326055</v>
@@ -6968,16 +6968,16 @@
         <v>3600.244041813157</v>
       </c>
       <c r="U35" t="n">
-        <v>3415.449390176633</v>
+        <v>3415.449390176632</v>
       </c>
       <c r="V35" t="n">
-        <v>3153.206593873103</v>
+        <v>3153.206593873102</v>
       </c>
       <c r="W35" t="n">
-        <v>2869.25802964303</v>
+        <v>2869.258029643029</v>
       </c>
       <c r="X35" t="n">
-        <v>2564.612362421991</v>
+        <v>2564.61236242199</v>
       </c>
       <c r="Y35" t="n">
         <v>2243.293121486221</v>
@@ -7014,25 +7014,25 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J36" t="n">
-        <v>117.6407938174676</v>
+        <v>242.4709188044724</v>
       </c>
       <c r="K36" t="n">
-        <v>464.4527104554118</v>
+        <v>653.361187648985</v>
       </c>
       <c r="L36" t="n">
-        <v>1078.3497802123</v>
+        <v>900.1263155554491</v>
       </c>
       <c r="M36" t="n">
-        <v>1385.669913492262</v>
+        <v>1207.446448835411</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.532541156295</v>
+        <v>1537.309076499444</v>
       </c>
       <c r="O36" t="n">
-        <v>1995.072606374992</v>
+        <v>1816.849141718141</v>
       </c>
       <c r="P36" t="n">
-        <v>2515.373228110739</v>
+        <v>2307.396713252248</v>
       </c>
       <c r="Q36" t="n">
         <v>2602.506130567962</v>
@@ -7093,10 +7093,10 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J37" t="n">
-        <v>155.9829803443643</v>
+        <v>155.9829803443641</v>
       </c>
       <c r="K37" t="n">
-        <v>373.6189558173199</v>
+        <v>373.6189558173198</v>
       </c>
       <c r="L37" t="n">
         <v>688.7815720567933</v>
@@ -7129,13 +7129,13 @@
         <v>1468.824662217086</v>
       </c>
       <c r="V37" t="n">
-        <v>1282.96026505124</v>
+        <v>1282.960265051241</v>
       </c>
       <c r="W37" t="n">
         <v>1062.363186054321</v>
       </c>
       <c r="X37" t="n">
-        <v>903.1937261963442</v>
+        <v>903.1937261963446</v>
       </c>
       <c r="Y37" t="n">
         <v>751.2212380928556</v>
@@ -7148,49 +7148,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1925.513372462138</v>
+        <v>1925.513372462139</v>
       </c>
       <c r="C38" t="n">
-        <v>1625.370946561768</v>
+        <v>1625.370946561769</v>
       </c>
       <c r="D38" t="n">
-        <v>1335.925338995058</v>
+        <v>1335.925338995059</v>
       </c>
       <c r="E38" t="n">
-        <v>1018.957177436855</v>
+        <v>1018.957177436856</v>
       </c>
       <c r="F38" t="n">
-        <v>676.7913636872887</v>
+        <v>676.7913636872896</v>
       </c>
       <c r="G38" t="n">
-        <v>329.4856801922889</v>
+        <v>329.4856801922888</v>
       </c>
       <c r="H38" t="n">
-        <v>89.93481253402928</v>
+        <v>89.93481253402931</v>
       </c>
       <c r="I38" t="n">
         <v>76.14971665211002</v>
       </c>
       <c r="J38" t="n">
-        <v>344.8139583742029</v>
+        <v>177.4083093538499</v>
       </c>
       <c r="K38" t="n">
-        <v>868.2168169432326</v>
+        <v>423.9151489921527</v>
       </c>
       <c r="L38" t="n">
-        <v>1474.738596518646</v>
+        <v>1125.519305035951</v>
       </c>
       <c r="M38" t="n">
-        <v>1826.996552080633</v>
+        <v>1922.795658755841</v>
       </c>
       <c r="N38" t="n">
-        <v>2189.568218016799</v>
+        <v>2718.340779859872</v>
       </c>
       <c r="O38" t="n">
-        <v>2895.591279040995</v>
+        <v>3424.363840884068</v>
       </c>
       <c r="P38" t="n">
-        <v>3460.491244296798</v>
+        <v>3670.683085050103</v>
       </c>
       <c r="Q38" t="n">
         <v>3807.4858326055</v>
@@ -7199,10 +7199,10 @@
         <v>3807.4858326055</v>
       </c>
       <c r="S38" t="n">
-        <v>3742.012625862512</v>
+        <v>3742.012625862513</v>
       </c>
       <c r="T38" t="n">
-        <v>3600.244041813157</v>
+        <v>3600.244041813158</v>
       </c>
       <c r="U38" t="n">
         <v>3415.449390176632</v>
@@ -7251,28 +7251,28 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J39" t="n">
-        <v>117.6407938174676</v>
+        <v>242.4709188044724</v>
       </c>
       <c r="K39" t="n">
-        <v>266.7104780195275</v>
+        <v>391.5406030065323</v>
       </c>
       <c r="L39" t="n">
-        <v>880.6075477764161</v>
+        <v>638.3057309129963</v>
       </c>
       <c r="M39" t="n">
-        <v>1187.927681056378</v>
+        <v>945.625864192958</v>
       </c>
       <c r="N39" t="n">
-        <v>1517.790308720411</v>
+        <v>1750.037442457109</v>
       </c>
       <c r="O39" t="n">
-        <v>2187.25407002307</v>
+        <v>2029.577507675806</v>
       </c>
       <c r="P39" t="n">
-        <v>2515.373228110739</v>
+        <v>2296.766701154948</v>
       </c>
       <c r="Q39" t="n">
-        <v>2602.506130567962</v>
+        <v>2591.876118470662</v>
       </c>
       <c r="R39" t="n">
         <v>2602.506130567962</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>638.3928643026571</v>
+        <v>638.3928643026568</v>
       </c>
       <c r="C40" t="n">
-        <v>538.2767724147913</v>
+        <v>538.2767724147909</v>
       </c>
       <c r="D40" t="n">
-        <v>456.9802240424966</v>
+        <v>456.9802240424962</v>
       </c>
       <c r="E40" t="n">
-        <v>377.8872215001445</v>
+        <v>377.8872215001442</v>
       </c>
       <c r="F40" t="n">
-        <v>299.8173650422751</v>
+        <v>299.8173650422749</v>
       </c>
       <c r="G40" t="n">
-        <v>200.4621344021368</v>
+        <v>200.4621344021366</v>
       </c>
       <c r="H40" t="n">
-        <v>118.8642169901214</v>
+        <v>118.8642169901215</v>
       </c>
       <c r="I40" t="n">
         <v>76.14971665211002</v>
@@ -7336,7 +7336,7 @@
         <v>373.6189558173198</v>
       </c>
       <c r="L40" t="n">
-        <v>688.7815720567934</v>
+        <v>688.7815720567933</v>
       </c>
       <c r="M40" t="n">
         <v>1027.79888605232</v>
@@ -7351,7 +7351,7 @@
         <v>1911.16945137598</v>
       </c>
       <c r="Q40" t="n">
-        <v>2017.45346557648</v>
+        <v>2017.453465576481</v>
       </c>
       <c r="R40" t="n">
         <v>1975.198453178347</v>
@@ -7366,16 +7366,16 @@
         <v>1468.824662217086</v>
       </c>
       <c r="V40" t="n">
-        <v>1282.960265051241</v>
+        <v>1282.96026505124</v>
       </c>
       <c r="W40" t="n">
         <v>1062.363186054321</v>
       </c>
       <c r="X40" t="n">
-        <v>903.1937261963448</v>
+        <v>903.1937261963446</v>
       </c>
       <c r="Y40" t="n">
-        <v>751.2212380928557</v>
+        <v>751.2212380928554</v>
       </c>
     </row>
     <row r="41">
@@ -7397,40 +7397,40 @@
         <v>1018.957177436855</v>
       </c>
       <c r="F41" t="n">
-        <v>676.79136368729</v>
+        <v>676.7913636872886</v>
       </c>
       <c r="G41" t="n">
         <v>329.485680192289</v>
       </c>
       <c r="H41" t="n">
-        <v>89.93481253402933</v>
+        <v>89.93481253402931</v>
       </c>
       <c r="I41" t="n">
         <v>76.14971665211002</v>
       </c>
       <c r="J41" t="n">
-        <v>344.8139583742029</v>
+        <v>177.4083093538499</v>
       </c>
       <c r="K41" t="n">
-        <v>868.2168169432326</v>
+        <v>700.8111679228796</v>
       </c>
       <c r="L41" t="n">
-        <v>1415.511460712183</v>
+        <v>1402.415323966678</v>
       </c>
       <c r="M41" t="n">
-        <v>1767.769416274169</v>
+        <v>1754.673279528664</v>
       </c>
       <c r="N41" t="n">
-        <v>2130.341082210336</v>
+        <v>2550.218400632695</v>
       </c>
       <c r="O41" t="n">
-        <v>2836.364143234531</v>
+        <v>3256.24146165689</v>
       </c>
       <c r="P41" t="n">
-        <v>3401.264108490334</v>
+        <v>3670.683085050103</v>
       </c>
       <c r="Q41" t="n">
-        <v>3748.258696799037</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="R41" t="n">
         <v>3807.4858326055</v>
@@ -7491,25 +7491,25 @@
         <v>242.4709188044724</v>
       </c>
       <c r="K42" t="n">
-        <v>653.361187648985</v>
+        <v>571.7543365504587</v>
       </c>
       <c r="L42" t="n">
-        <v>900.1263155554491</v>
+        <v>1185.651406307347</v>
       </c>
       <c r="M42" t="n">
-        <v>1207.446448835411</v>
+        <v>1492.971539587309</v>
       </c>
       <c r="N42" t="n">
-        <v>1537.309076499444</v>
+        <v>1822.834167251342</v>
       </c>
       <c r="O42" t="n">
-        <v>1816.849141718141</v>
+        <v>2102.374232470039</v>
       </c>
       <c r="P42" t="n">
-        <v>2296.766701154948</v>
+        <v>2307.396713252248</v>
       </c>
       <c r="Q42" t="n">
-        <v>2591.876118470662</v>
+        <v>2602.506130567962</v>
       </c>
       <c r="R42" t="n">
         <v>2602.506130567962</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>638.3928643026579</v>
+        <v>638.392864302657</v>
       </c>
       <c r="C43" t="n">
-        <v>538.276772414792</v>
+        <v>538.2767724147911</v>
       </c>
       <c r="D43" t="n">
-        <v>456.9802240424974</v>
+        <v>456.9802240424964</v>
       </c>
       <c r="E43" t="n">
-        <v>377.8872215001454</v>
+        <v>377.8872215001444</v>
       </c>
       <c r="F43" t="n">
-        <v>299.817365042276</v>
+        <v>299.8173650422751</v>
       </c>
       <c r="G43" t="n">
-        <v>200.4621344021377</v>
+        <v>200.4621344021371</v>
       </c>
       <c r="H43" t="n">
-        <v>118.8642169901221</v>
+        <v>118.8642169901215</v>
       </c>
       <c r="I43" t="n">
         <v>76.14971665211002</v>
@@ -7573,46 +7573,46 @@
         <v>373.6189558173197</v>
       </c>
       <c r="L43" t="n">
-        <v>688.7815720567933</v>
+        <v>688.781572056793</v>
       </c>
       <c r="M43" t="n">
-        <v>1027.798886052321</v>
+        <v>1027.79888605232</v>
       </c>
       <c r="N43" t="n">
-        <v>1365.793566308213</v>
+        <v>1365.793566308212</v>
       </c>
       <c r="O43" t="n">
-        <v>1667.119115541954</v>
+        <v>1667.119115541953</v>
       </c>
       <c r="P43" t="n">
-        <v>1911.169451375981</v>
+        <v>1911.16945137598</v>
       </c>
       <c r="Q43" t="n">
         <v>2017.453465576481</v>
       </c>
       <c r="R43" t="n">
-        <v>1975.198453178348</v>
+        <v>1975.198453178347</v>
       </c>
       <c r="S43" t="n">
-        <v>1844.098534133941</v>
+        <v>1844.09853413394</v>
       </c>
       <c r="T43" t="n">
-        <v>1689.133209963488</v>
+        <v>1689.133209963487</v>
       </c>
       <c r="U43" t="n">
-        <v>1468.824662217087</v>
+        <v>1468.824662217086</v>
       </c>
       <c r="V43" t="n">
-        <v>1282.960265051242</v>
+        <v>1282.96026505124</v>
       </c>
       <c r="W43" t="n">
-        <v>1062.363186054322</v>
+        <v>1062.363186054321</v>
       </c>
       <c r="X43" t="n">
-        <v>903.1937261963456</v>
+        <v>903.1937261963446</v>
       </c>
       <c r="Y43" t="n">
-        <v>751.2212380928565</v>
+        <v>751.2212380928556</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1018.957177436855</v>
       </c>
       <c r="F44" t="n">
-        <v>676.7913636872888</v>
+        <v>676.7913636872886</v>
       </c>
       <c r="G44" t="n">
-        <v>329.4856801922889</v>
+        <v>329.4856801922877</v>
       </c>
       <c r="H44" t="n">
-        <v>89.93481253402928</v>
+        <v>89.93481253402931</v>
       </c>
       <c r="I44" t="n">
         <v>76.14971665211002</v>
       </c>
       <c r="J44" t="n">
-        <v>249.7315819058185</v>
+        <v>344.8139583742029</v>
       </c>
       <c r="K44" t="n">
-        <v>773.1344404748482</v>
+        <v>868.2168169432326</v>
       </c>
       <c r="L44" t="n">
-        <v>1474.738596518646</v>
+        <v>1569.820972987031</v>
       </c>
       <c r="M44" t="n">
-        <v>1826.996552080633</v>
+        <v>1922.078928549017</v>
       </c>
       <c r="N44" t="n">
-        <v>2189.568218016799</v>
+        <v>2284.650594485183</v>
       </c>
       <c r="O44" t="n">
         <v>2895.591279040995</v>
@@ -7743,10 +7743,10 @@
         <v>1816.849141718141</v>
       </c>
       <c r="P45" t="n">
-        <v>2296.766701154948</v>
+        <v>2307.396713252248</v>
       </c>
       <c r="Q45" t="n">
-        <v>2591.876118470662</v>
+        <v>2602.506130567962</v>
       </c>
       <c r="R45" t="n">
         <v>2602.506130567962</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>638.3928643026572</v>
+        <v>638.392864302657</v>
       </c>
       <c r="C46" t="n">
-        <v>538.2767724147914</v>
+        <v>538.2767724147911</v>
       </c>
       <c r="D46" t="n">
-        <v>456.9802240424967</v>
+        <v>456.9802240424964</v>
       </c>
       <c r="E46" t="n">
-        <v>377.8872215001447</v>
+        <v>377.8872215001444</v>
       </c>
       <c r="F46" t="n">
-        <v>299.8173650422755</v>
+        <v>299.8173650422751</v>
       </c>
       <c r="G46" t="n">
-        <v>200.4621344021372</v>
+        <v>200.4621344021368</v>
       </c>
       <c r="H46" t="n">
-        <v>118.8642169901214</v>
+        <v>118.8642169901215</v>
       </c>
       <c r="I46" t="n">
         <v>76.14971665211002</v>
@@ -7810,7 +7810,7 @@
         <v>373.6189558173198</v>
       </c>
       <c r="L46" t="n">
-        <v>688.7815720567934</v>
+        <v>688.7815720567933</v>
       </c>
       <c r="M46" t="n">
         <v>1027.79888605232</v>
@@ -7831,13 +7831,13 @@
         <v>1975.198453178347</v>
       </c>
       <c r="S46" t="n">
-        <v>1844.098534133941</v>
+        <v>1844.09853413394</v>
       </c>
       <c r="T46" t="n">
         <v>1689.133209963487</v>
       </c>
       <c r="U46" t="n">
-        <v>1468.824662217087</v>
+        <v>1468.824662217086</v>
       </c>
       <c r="V46" t="n">
         <v>1282.960265051241</v>
@@ -7846,10 +7846,10 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X46" t="n">
-        <v>903.1937261963452</v>
+        <v>903.1937261963446</v>
       </c>
       <c r="Y46" t="n">
-        <v>751.2212380928559</v>
+        <v>751.2212380928556</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>186.3618508321561</v>
+        <v>325.1495899637346</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>108.2245426988761</v>
       </c>
       <c r="K6" t="n">
-        <v>106.0287138250084</v>
+        <v>106.0287138250091</v>
       </c>
       <c r="L6" t="n">
-        <v>132.3534856598083</v>
+        <v>150.2199783013404</v>
       </c>
       <c r="M6" t="n">
-        <v>434.0896122856909</v>
+        <v>434.0896122856897</v>
       </c>
       <c r="N6" t="n">
-        <v>421.9761166209647</v>
+        <v>421.9761166209635</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>285.1031356539336</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>52.497333613053</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>85.3000633212781</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10209,10 +10209,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>85.30006332127807</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10449,7 +10449,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>44.45246415628912</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>136.4248994117644</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>5.891030169484338</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>199.7396287231155</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,10 +10680,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>44.45246415628912</v>
       </c>
       <c r="L38" t="n">
-        <v>321.6184100369308</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>5.891030169484338</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>124.3400780863226</v>
+        <v>62.79465928983154</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>261.7930203334323</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>169.820585077957</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>5.891030169484338</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>182.0340742867944</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.05381065855423</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>284.757376749226</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>78.33112907406479</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>82.80253093165243</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>16.09774829340867</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>42.96425443684701</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>141.8119189026681</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,19 +23944,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.3938331833856</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,16 +24127,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338582</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>148.7732345410267</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>161.430894639085</v>
+        <v>116.1589455210384</v>
       </c>
       <c r="C25" t="n">
         <v>148.8457355557755</v>
@@ -24373,16 +24373,16 @@
         <v>128.0328771037168</v>
       </c>
       <c r="F25" t="n">
-        <v>127.0199624800789</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>148.0924829205252</v>
       </c>
       <c r="H25" t="n">
         <v>130.5127428246838</v>
       </c>
       <c r="I25" t="n">
-        <v>67.81873124382014</v>
+        <v>92.01815992141961</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>91.56326686094044</v>
+        <v>91.56326686094042</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>161.4308946390849</v>
       </c>
       <c r="C28" t="n">
         <v>148.8457355557755</v>
@@ -24613,13 +24613,13 @@
         <v>127.0199624800789</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>148.0924829205252</v>
       </c>
       <c r="H28" t="n">
         <v>130.5127428246838</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>92.01815992141961</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>91.56326686094042</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>87.07633496287025</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>233.7365577809757</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>27.89165621111712</v>
       </c>
       <c r="Y28" t="n">
-        <v>200.1835678092424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>161.4308946390849</v>
       </c>
       <c r="C31" t="n">
         <v>148.8457355557755</v>
@@ -24850,13 +24850,13 @@
         <v>127.0199624800789</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>148.0924829205252</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>130.5127428246838</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>92.01815992141961</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>91.56326686094044</v>
+        <v>91.56326686094042</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>152.4537988614039</v>
+        <v>27.89165621111691</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>207.3085698461848</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>200.1835678092424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26314,37 +26314,37 @@
         <v>246312.530959285</v>
       </c>
       <c r="C2" t="n">
-        <v>246312.5309592848</v>
+        <v>246312.530959285</v>
       </c>
       <c r="D2" t="n">
-        <v>246312.5309592848</v>
+        <v>246312.5309592849</v>
       </c>
       <c r="E2" t="n">
-        <v>234617.4358426253</v>
+        <v>234617.4358426251</v>
       </c>
       <c r="F2" t="n">
         <v>234617.4358426252</v>
       </c>
       <c r="G2" t="n">
-        <v>234617.4358426251</v>
+        <v>234617.4358426252</v>
       </c>
       <c r="H2" t="n">
-        <v>234617.4358426251</v>
+        <v>234617.4358426252</v>
       </c>
       <c r="I2" t="n">
         <v>237776.0513641374</v>
       </c>
       <c r="J2" t="n">
-        <v>237776.0513641373</v>
+        <v>237776.0513641374</v>
       </c>
       <c r="K2" t="n">
-        <v>237776.0513641373</v>
+        <v>237776.0513641374</v>
       </c>
       <c r="L2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592851</v>
       </c>
       <c r="M2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592851</v>
       </c>
       <c r="N2" t="n">
         <v>246312.530959285</v>
@@ -26366,10 +26366,10 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>72744.75223794779</v>
+        <v>72744.75223794526</v>
       </c>
       <c r="D3" t="n">
-        <v>348321.8962936396</v>
+        <v>348321.8962936421</v>
       </c>
       <c r="E3" t="n">
         <v>525160.0364768961</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>14720.86843428187</v>
+        <v>14720.8684342819</v>
       </c>
       <c r="J3" t="n">
         <v>72254.69487113907</v>
       </c>
       <c r="K3" t="n">
-        <v>16913.40047303606</v>
+        <v>16913.40047303546</v>
       </c>
       <c r="L3" t="n">
-        <v>123915.625874163</v>
+        <v>123915.6258741635</v>
       </c>
       <c r="M3" t="n">
-        <v>69175.08933762896</v>
+        <v>69175.08933762902</v>
       </c>
       <c r="N3" t="n">
-        <v>14720.86843428189</v>
+        <v>14720.8684342819</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,40 +26418,40 @@
         <v>316926.9684369123</v>
       </c>
       <c r="C4" t="n">
-        <v>296337.3092211186</v>
+        <v>296337.3092211193</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
         <v>43561.42148316556</v>
       </c>
       <c r="F4" t="n">
-        <v>43561.42148316555</v>
+        <v>43561.42148316558</v>
       </c>
       <c r="G4" t="n">
-        <v>43561.42148316557</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="H4" t="n">
         <v>43561.42148316556</v>
       </c>
       <c r="I4" t="n">
-        <v>49616.29565456439</v>
+        <v>49616.2956545644</v>
       </c>
       <c r="J4" t="n">
-        <v>49616.29565456438</v>
+        <v>49616.2956545644</v>
       </c>
       <c r="K4" t="n">
-        <v>49616.29565456438</v>
+        <v>49616.29565456441</v>
       </c>
       <c r="L4" t="n">
-        <v>65980.208724486</v>
+        <v>65980.20872448603</v>
       </c>
       <c r="M4" t="n">
         <v>99837.12979766788</v>
       </c>
       <c r="N4" t="n">
-        <v>99837.12979766783</v>
+        <v>99837.12979766782</v>
       </c>
       <c r="O4" t="n">
         <v>99837.12979766788</v>
@@ -26470,13 +26470,13 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>56410.20653049169</v>
+        <v>56410.20653049152</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26497,7 +26497,7 @@
         <v>93534.28680921868</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>81703.90096581174</v>
@@ -26522,43 +26522,43 @@
         <v>-248089.1584412205</v>
       </c>
       <c r="C6" t="n">
-        <v>-179179.7370302733</v>
+        <v>-179179.737030271</v>
       </c>
       <c r="D6" t="n">
-        <v>-377075.0397901939</v>
+        <v>-377075.0397901965</v>
       </c>
       <c r="E6" t="n">
-        <v>-426091.348066153</v>
+        <v>-426188.8071921254</v>
       </c>
       <c r="F6" t="n">
-        <v>99068.68841074298</v>
+        <v>98971.22928477082</v>
       </c>
       <c r="G6" t="n">
-        <v>99068.68841074294</v>
+        <v>98971.22928477083</v>
       </c>
       <c r="H6" t="n">
-        <v>99068.68841074294</v>
+        <v>98971.22928477083</v>
       </c>
       <c r="I6" t="n">
-        <v>79904.60046607246</v>
+        <v>79833.46313611281</v>
       </c>
       <c r="J6" t="n">
-        <v>22370.77402921516</v>
+        <v>22299.63669925564</v>
       </c>
       <c r="K6" t="n">
-        <v>77712.0684273182</v>
+        <v>77640.93109735922</v>
       </c>
       <c r="L6" t="n">
-        <v>-41298.40945938937</v>
+        <v>-41298.40945938988</v>
       </c>
       <c r="M6" t="n">
         <v>-4403.589141823555</v>
       </c>
       <c r="N6" t="n">
-        <v>50050.63176152349</v>
+        <v>50050.63176152357</v>
       </c>
       <c r="O6" t="n">
-        <v>64771.50019580539</v>
+        <v>64771.50019580536</v>
       </c>
       <c r="P6" t="n">
         <v>64771.50019580533</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="J2" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="K2" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26738,13 +26738,13 @@
         <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>91.59216845020396</v>
+        <v>91.592168450202</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26790,7 +26790,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>341.8733101690337</v>
+        <v>341.8733101690315</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>49.73080458678829</v>
+        <v>49.73080458678828</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26960,10 +26960,10 @@
         <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>56.57090773107862</v>
+        <v>56.57090773107665</v>
       </c>
       <c r="D3" t="n">
-        <v>286.1514957668826</v>
+        <v>286.1514957668847</v>
       </c>
       <c r="E3" t="n">
         <v>452.6387412370136</v>
@@ -27012,10 +27012,10 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>65.71679646667829</v>
+        <v>65.71679646667599</v>
       </c>
       <c r="D4" t="n">
-        <v>332.4139625855219</v>
+        <v>332.4139625855241</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990175</v>
@@ -27036,13 +27036,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>65.71679646667829</v>
+        <v>65.71679646667599</v>
       </c>
       <c r="L4" t="n">
-        <v>332.4139625855221</v>
+        <v>332.4139625855241</v>
       </c>
       <c r="M4" t="n">
-        <v>277.5841853968193</v>
+        <v>277.5841853968195</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27258,10 +27258,10 @@
         <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>65.71679646667829</v>
+        <v>65.71679646667599</v>
       </c>
       <c r="L4" t="n">
-        <v>332.4139625855219</v>
+        <v>332.4139625855241</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990175</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F2" t="n">
-        <v>153.9772130864521</v>
+        <v>304.6626701579561</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H2" t="n">
-        <v>61.87643319194537</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
         <v>205.0481221176458</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>205.8118405263978</v>
@@ -27433,16 +27433,16 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>51.59574476777942</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611355</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>137.5564357033205</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,10 +27470,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>33.20478987856109</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27558,10 +27558,10 @@
         <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>14.932250645712</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>132.3477158387153</v>
+        <v>43.45345940421689</v>
       </c>
     </row>
     <row r="5">
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>65.00273557267997</v>
       </c>
       <c r="G5" t="n">
-        <v>182.0754918532272</v>
+        <v>73.06121762369071</v>
       </c>
       <c r="H5" t="n">
-        <v>335.7038742961062</v>
+        <v>335.7038742961063</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>131.9704131136068</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.484011504269</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3161961300435</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>27.85779050943529</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>55.89605738996238</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.1465075933366</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>110.3327465485026</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>82.61362792373488</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>87.92595927923665</v>
+        <v>87.92595927923691</v>
       </c>
       <c r="S6" t="n">
-        <v>168.0238047511339</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>199.3706418758996</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>179.4210116082529</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27792,13 +27792,13 @@
         <v>160.7586947903199</v>
       </c>
       <c r="I7" t="n">
-        <v>150.4834766775325</v>
+        <v>150.4834766775326</v>
       </c>
       <c r="J7" t="n">
-        <v>81.68192939475087</v>
+        <v>81.68192939475112</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>3.080181780086441</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>72.33162581571359</v>
+        <v>72.33162581571389</v>
       </c>
       <c r="R7" t="n">
-        <v>169.866918177912</v>
+        <v>169.8669181779121</v>
       </c>
       <c r="S7" t="n">
-        <v>221.1382015301027</v>
+        <v>221.1382015301028</v>
       </c>
       <c r="T7" t="n">
         <v>227.2398792779275</v>
@@ -27831,7 +27831,7 @@
         <v>286.3100202907417</v>
       </c>
       <c r="V7" t="n">
-        <v>8.024301351587866</v>
+        <v>4.944119571504331</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>54.89639508153618</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>44.47535211858258</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>26.49270221965233</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>32.35411886011974</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="C25" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="D25" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="E25" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="F25" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="G25" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="H25" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="I25" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="J25" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="K25" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="L25" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="M25" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="N25" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="O25" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="P25" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="R25" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="S25" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="T25" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="U25" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="V25" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="W25" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="X25" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="Y25" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
     </row>
     <row r="26">
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="C28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="D28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="E28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="F28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="G28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="H28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="I28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="J28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="K28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="L28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="M28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="N28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="O28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="P28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="R28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="S28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="T28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="U28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="V28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="W28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="X28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="Y28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="C31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="D31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="E31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="F31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="G31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="H31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="I31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="J31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="K31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="L31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="M31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="N31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="O31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="P31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="R31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="S31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="T31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="U31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="V31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="W31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="X31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="Y31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285237</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U35" t="n">
-        <v>68.13189012964213</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964193</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F41" t="n">
-        <v>68.13189012964199</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964187</v>
       </c>
       <c r="H41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G44" t="n">
-        <v>68.13189012964153</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296419</v>
       </c>
       <c r="I44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.1407889878155792</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4418552214663</v>
+        <v>1.441855221466301</v>
       </c>
       <c r="I2" t="n">
-        <v>5.42776745276012</v>
+        <v>5.427767452760121</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -31054,13 +31054,13 @@
         <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470702</v>
+        <v>22.21755819470703</v>
       </c>
       <c r="M2" t="n">
         <v>24.72131435677233</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840334</v>
+        <v>25.12133106840335</v>
       </c>
       <c r="O2" t="n">
         <v>23.72136057081218</v>
@@ -31069,16 +31069,16 @@
         <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796963</v>
+        <v>15.20362680796964</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587038</v>
+        <v>8.843836255870382</v>
       </c>
       <c r="S2" t="n">
         <v>3.208229059847513</v>
       </c>
       <c r="T2" t="n">
-        <v>0.616303794162698</v>
+        <v>0.6163037941626981</v>
       </c>
       <c r="U2" t="n">
         <v>0.01126311902524633</v>
@@ -31118,22 +31118,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.07532874947132621</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520189</v>
+        <v>0.727517133052019</v>
       </c>
       <c r="I3" t="n">
         <v>2.593555628727679</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779991</v>
+        <v>7.116914878779992</v>
       </c>
       <c r="K3" t="n">
         <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358773</v>
+        <v>16.35591992358774</v>
       </c>
       <c r="M3" t="n">
         <v>19.08658709192331</v>
@@ -31142,25 +31142,25 @@
         <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689049</v>
+        <v>17.9226257568905</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650263</v>
+        <v>14.38448725650264</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164377</v>
+        <v>9.615648792164379</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263571</v>
+        <v>4.676990252263572</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504676</v>
+        <v>1.399198482504677</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497753</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.004955838781008306</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,40 +31197,40 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.06315309310006209</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623704</v>
+        <v>0.5614884095623707</v>
       </c>
       <c r="I4" t="n">
         <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174389</v>
+        <v>4.46492368217439</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170847</v>
+        <v>7.337241180170849</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894685</v>
+        <v>9.389142586894687</v>
       </c>
       <c r="M4" t="n">
-        <v>9.89953440294882</v>
+        <v>9.899534402948822</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394052</v>
+        <v>9.664145601394054</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179687</v>
+        <v>8.926402650179689</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938414</v>
+        <v>7.638079550938415</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587926</v>
+        <v>5.288210368587927</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390063</v>
+        <v>2.839592713390064</v>
       </c>
       <c r="S4" t="n">
         <v>1.100586177025627</v>
@@ -31239,7 +31239,7 @@
         <v>0.2698359432457197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.0034447141690943</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.36820972241288</v>
+        <v>0.3682097224128721</v>
       </c>
       <c r="H5" t="n">
-        <v>3.770927819660908</v>
+        <v>3.770927819660827</v>
       </c>
       <c r="I5" t="n">
-        <v>14.19540532332257</v>
+        <v>14.19540532332226</v>
       </c>
       <c r="J5" t="n">
-        <v>31.2513399276402</v>
+        <v>31.25133992763953</v>
       </c>
       <c r="K5" t="n">
-        <v>46.83765747737741</v>
+        <v>46.83765747737641</v>
       </c>
       <c r="L5" t="n">
-        <v>58.1062557696706</v>
+        <v>58.10625576966936</v>
       </c>
       <c r="M5" t="n">
-        <v>64.65440542063065</v>
+        <v>64.65440542062927</v>
       </c>
       <c r="N5" t="n">
-        <v>65.70058129443625</v>
+        <v>65.70058129443484</v>
       </c>
       <c r="O5" t="n">
-        <v>62.03919586719317</v>
+        <v>62.03919586719184</v>
       </c>
       <c r="P5" t="n">
-        <v>52.9490183451252</v>
+        <v>52.94901834512406</v>
       </c>
       <c r="Q5" t="n">
-        <v>39.76250766121392</v>
+        <v>39.76250766121306</v>
       </c>
       <c r="R5" t="n">
-        <v>23.12955397551809</v>
+        <v>23.1295539755176</v>
       </c>
       <c r="S5" t="n">
-        <v>8.39057904948351</v>
+        <v>8.39057904948333</v>
       </c>
       <c r="T5" t="n">
-        <v>1.611838059862383</v>
+        <v>1.611838059862348</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02945677779303039</v>
+        <v>0.02945677779302976</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1970095698740236</v>
+        <v>0.1970095698740194</v>
       </c>
       <c r="H6" t="n">
-        <v>1.90269768799386</v>
+        <v>1.902697687993819</v>
       </c>
       <c r="I6" t="n">
-        <v>6.783004927680199</v>
+        <v>6.783004927680055</v>
       </c>
       <c r="J6" t="n">
-        <v>18.61308396779098</v>
+        <v>18.61308396779058</v>
       </c>
       <c r="K6" t="n">
-        <v>31.81272514935056</v>
+        <v>31.81272514934988</v>
       </c>
       <c r="L6" t="n">
-        <v>42.77613489742781</v>
+        <v>42.77613489742689</v>
       </c>
       <c r="M6" t="n">
-        <v>49.91773180536115</v>
+        <v>49.91773180536008</v>
       </c>
       <c r="N6" t="n">
-        <v>51.23890563140231</v>
+        <v>51.23890563140121</v>
       </c>
       <c r="O6" t="n">
-        <v>46.87358831998315</v>
+        <v>46.87358831998215</v>
       </c>
       <c r="P6" t="n">
-        <v>37.62018707533</v>
+        <v>37.6201870753292</v>
       </c>
       <c r="Q6" t="n">
-        <v>25.14809877900695</v>
+        <v>25.14809877900641</v>
       </c>
       <c r="R6" t="n">
-        <v>12.23187487340649</v>
+        <v>12.23187487340623</v>
       </c>
       <c r="S6" t="n">
-        <v>3.659366352703901</v>
+        <v>3.659366352703822</v>
       </c>
       <c r="T6" t="n">
-        <v>0.794086818922051</v>
+        <v>0.794086818922034</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01296115591276472</v>
+        <v>0.01296115591276444</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1651662054020071</v>
+        <v>0.1651662054020036</v>
       </c>
       <c r="H7" t="n">
-        <v>1.468477717119664</v>
+        <v>1.468477717119633</v>
       </c>
       <c r="I7" t="n">
-        <v>4.966998249725815</v>
+        <v>4.966998249725709</v>
       </c>
       <c r="J7" t="n">
-        <v>11.6772507219219</v>
+        <v>11.67725072192165</v>
       </c>
       <c r="K7" t="n">
-        <v>19.18931004579682</v>
+        <v>19.18931004579641</v>
       </c>
       <c r="L7" t="n">
-        <v>24.55571021040386</v>
+        <v>24.55571021040334</v>
       </c>
       <c r="M7" t="n">
-        <v>25.89055345224371</v>
+        <v>25.89055345224316</v>
       </c>
       <c r="N7" t="n">
-        <v>25.27493395938171</v>
+        <v>25.27493395938117</v>
       </c>
       <c r="O7" t="n">
-        <v>23.34549237809462</v>
+        <v>23.34549237809411</v>
       </c>
       <c r="P7" t="n">
-        <v>19.97610178789365</v>
+        <v>19.97610178789322</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.8304174359808</v>
+        <v>13.8304174359805</v>
       </c>
       <c r="R7" t="n">
-        <v>7.426473199257519</v>
+        <v>7.42647319925736</v>
       </c>
       <c r="S7" t="n">
-        <v>2.878396506869523</v>
+        <v>2.878396506869461</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7057101503540302</v>
+        <v>0.7057101503540151</v>
       </c>
       <c r="U7" t="n">
-        <v>0.009009065749200398</v>
+        <v>0.009009065749200205</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34717,7 +34717,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424828</v>
+        <v>5.212927593424832</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522134</v>
+        <v>6.370323552522136</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315785</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>248.6418854471727</v>
@@ -34787,7 +34787,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="N3" t="n">
-        <v>74.61189100715683</v>
+        <v>213.3996301387353</v>
       </c>
       <c r="O3" t="n">
         <v>269.1887005891756</v>
@@ -34863,7 +34863,7 @@
         <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
-        <v>49.4834113647894</v>
+        <v>49.48341136478941</v>
       </c>
       <c r="N4" t="n">
         <v>53.79631798062265</v>
@@ -34872,7 +34872,7 @@
         <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831902</v>
+        <v>4.916638815831903</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>19.30205057302768</v>
+        <v>19.30205057302701</v>
       </c>
       <c r="K5" t="n">
-        <v>150.8932190035616</v>
+        <v>150.8932190035606</v>
       </c>
       <c r="L5" t="n">
-        <v>240.0010553501338</v>
+        <v>240.0010553501326</v>
       </c>
       <c r="M5" t="n">
-        <v>283.8217056861904</v>
+        <v>283.821705686189</v>
       </c>
       <c r="N5" t="n">
-        <v>273.6344421098295</v>
+        <v>273.6344421098281</v>
       </c>
       <c r="O5" t="n">
-        <v>212.7411657082518</v>
+        <v>212.7411657082505</v>
       </c>
       <c r="P5" t="n">
-        <v>143.5147307613383</v>
+        <v>143.5147307613371</v>
       </c>
       <c r="Q5" t="n">
-        <v>29.77180844666911</v>
+        <v>29.77180844666826</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>17.86649264153312</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>36.57524077736188</v>
+        <v>54.44173341889312</v>
       </c>
       <c r="M6" t="n">
-        <v>341.8733101690337</v>
+        <v>341.8733101690315</v>
       </c>
       <c r="N6" t="n">
-        <v>341.8733101690337</v>
+        <v>341.8733101690315</v>
       </c>
       <c r="O6" t="n">
-        <v>298.1396631522682</v>
+        <v>298.1396631522672</v>
       </c>
       <c r="P6" t="n">
-        <v>222.1085483009369</v>
+        <v>222.1085483009361</v>
       </c>
       <c r="Q6" t="n">
-        <v>95.24361242883452</v>
+        <v>95.24361242883398</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>52.14573547072</v>
+        <v>52.14573547071947</v>
       </c>
       <c r="M7" t="n">
-        <v>65.4744304140843</v>
+        <v>65.47443041408374</v>
       </c>
       <c r="N7" t="n">
-        <v>69.4071063386103</v>
+        <v>69.40710633860976</v>
       </c>
       <c r="O7" t="n">
-        <v>47.93062029213429</v>
+        <v>47.93062029213379</v>
       </c>
       <c r="P7" t="n">
-        <v>17.25466105278714</v>
+        <v>17.25466105278671</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>492.1965505854582</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>516.775353191425</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>259.5907485445777</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
@@ -35975,7 +35975,7 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>516.7753531914248</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.90885570841787</v>
+        <v>30.90885570841791</v>
       </c>
       <c r="K25" t="n">
         <v>170.1035140727629</v>
@@ -36528,13 +36528,13 @@
         <v>291.677963348456</v>
       </c>
       <c r="O25" t="n">
-        <v>254.6384370634552</v>
+        <v>254.6384370634553</v>
       </c>
       <c r="P25" t="n">
         <v>196.7846861546531</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.62678551472709</v>
+        <v>57.62678551472713</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.90885570841787</v>
+        <v>30.90885570841791</v>
       </c>
       <c r="K28" t="n">
         <v>170.1035140727629</v>
@@ -36765,13 +36765,13 @@
         <v>291.677963348456</v>
       </c>
       <c r="O28" t="n">
-        <v>254.6384370634552</v>
+        <v>254.6384370634553</v>
       </c>
       <c r="P28" t="n">
         <v>196.7846861546531</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.62678551472709</v>
+        <v>57.62678551472713</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>127.2102422761848</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36929,10 +36929,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.90885570841787</v>
+        <v>30.90885570841791</v>
       </c>
       <c r="K31" t="n">
         <v>170.1035140727629</v>
@@ -37002,13 +37002,13 @@
         <v>291.677963348456</v>
       </c>
       <c r="O31" t="n">
-        <v>254.6384370634552</v>
+        <v>254.6384370634553</v>
       </c>
       <c r="P31" t="n">
         <v>196.7846861546531</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.6267855147271</v>
+        <v>57.62678551472713</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>127.2102422761848</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37169,7 +37169,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>102.2814067694342</v>
       </c>
       <c r="K35" t="n">
-        <v>204.5443435591683</v>
+        <v>248.9968077154574</v>
       </c>
       <c r="L35" t="n">
-        <v>291.0298521604568</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>502.6589054078921</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>248.8073173394297</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>138.1845934903002</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>350.3150673110547</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37400,10 +37400,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>102.2814067694342</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>248.9968077154574</v>
       </c>
       <c r="L38" t="n">
-        <v>612.6482621973876</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>355.8161167292792</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>366.2340059961277</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>248.8073173394297</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>138.1845934903002</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>331.4334930178474</v>
+        <v>269.8880742213562</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>102.2814067694342</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>552.822872493889</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>355.8161167292792</v>
       </c>
       <c r="N41" t="n">
-        <v>366.2340059961277</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>418.6279024173868</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>138.1845934903002</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,10 +37859,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>332.6095128747336</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>175.3352174279884</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38029,7 +38029,7 @@
         <v>366.2340059961277</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>617.1118025816278</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
